--- a/일퀘좌표정보.xlsx
+++ b/일퀘좌표정보.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EF3036-6B4A-4D84-B617-47690443A3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE981D12-EDFC-4066-AA1A-3CEA6FE4DD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3555" windowWidth="16410" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="2925" windowWidth="16410" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,10 +347,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -937,10 +937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1709,6 +1709,54 @@
       <c r="J21" t="str">
         <f t="shared" si="4"/>
         <v>(0.785714285714286,0.865116279069767)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>1620</v>
+      </c>
+      <c r="B23" s="5">
+        <v>960</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C24" si="7">A23-$F$1</f>
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D24" si="8">B23-$G$1</f>
+        <v>141</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E24" si="9">C23/$J$1</f>
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F24" si="10">D23/$K$1</f>
+        <v>0.65581395348837213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>1660</v>
+      </c>
+      <c r="B24" s="5">
+        <v>963</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="9"/>
+        <v>0.18944099378881987</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="10"/>
+        <v>0.66976744186046511</v>
       </c>
     </row>
   </sheetData>
